--- a/Documentation/EEOB563_Final_Project_Character_Scoring.xlsx
+++ b/Documentation/EEOB563_Final_Project_Character_Scoring.xlsx
@@ -1683,6 +1683,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1706,24 +1724,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="119">
@@ -4086,14 +4086,14 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" customWidth="1"/>
@@ -4152,97 +4152,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="15" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="40" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="40" t="s">
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="BE1" s="41"/>
-      <c r="BF1" s="41"/>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BJ1" s="41"/>
-      <c r="BK1" s="41"/>
-      <c r="BL1" s="41"/>
-      <c r="BM1" s="41"/>
-      <c r="BN1" s="41"/>
-      <c r="BO1" s="41"/>
-      <c r="BP1" s="41"/>
-      <c r="BQ1" s="41"/>
-      <c r="BR1" s="41"/>
-      <c r="BS1" s="41"/>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="42"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="47"/>
+      <c r="BQ1" s="47"/>
+      <c r="BR1" s="47"/>
+      <c r="BS1" s="47"/>
+      <c r="BT1" s="47"/>
+      <c r="BU1" s="48"/>
     </row>
     <row r="2" spans="1:73" s="7" customFormat="1" ht="15" thickBot="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="46" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -4454,7 +4454,7 @@
       </c>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="42" t="s">
         <v>352</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -4675,7 +4675,7 @@
       </c>
     </row>
     <row r="4" spans="1:73">
-      <c r="A4" s="36"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="16" t="s">
         <v>192</v>
       </c>
@@ -4894,7 +4894,7 @@
       </c>
     </row>
     <row r="5" spans="1:73">
-      <c r="A5" s="36"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="16" t="s">
         <v>193</v>
       </c>
@@ -5113,7 +5113,7 @@
       </c>
     </row>
     <row r="6" spans="1:73" ht="15" thickBot="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="17" t="s">
         <v>194</v>
       </c>
@@ -5332,7 +5332,7 @@
       </c>
     </row>
     <row r="7" spans="1:73" ht="14" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="41" t="s">
         <v>345</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -5553,7 +5553,7 @@
       </c>
     </row>
     <row r="8" spans="1:73">
-      <c r="A8" s="36"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="16" t="s">
         <v>192</v>
       </c>
@@ -5772,7 +5772,7 @@
       </c>
     </row>
     <row r="9" spans="1:73">
-      <c r="A9" s="36"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="16" t="s">
         <v>240</v>
       </c>
@@ -5991,7 +5991,7 @@
       </c>
     </row>
     <row r="10" spans="1:73">
-      <c r="A10" s="36"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="16" t="s">
         <v>193</v>
       </c>
@@ -6210,7 +6210,7 @@
       </c>
     </row>
     <row r="11" spans="1:73" ht="15" thickBot="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="17" t="s">
         <v>194</v>
       </c>
@@ -6429,7 +6429,7 @@
       </c>
     </row>
     <row r="12" spans="1:73">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="41" t="s">
         <v>346</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -6650,7 +6650,7 @@
       </c>
     </row>
     <row r="13" spans="1:73">
-      <c r="A13" s="36"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="16" t="s">
         <v>236</v>
       </c>
@@ -6869,7 +6869,7 @@
       </c>
     </row>
     <row r="14" spans="1:73">
-      <c r="A14" s="36"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="16" t="s">
         <v>237</v>
       </c>
@@ -7088,7 +7088,7 @@
       </c>
     </row>
     <row r="15" spans="1:73">
-      <c r="A15" s="36"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>238</v>
       </c>
@@ -7307,7 +7307,7 @@
       </c>
     </row>
     <row r="16" spans="1:73" ht="15" thickBot="1">
-      <c r="A16" s="37"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="17" t="s">
         <v>239</v>
       </c>
@@ -7526,7 +7526,7 @@
       </c>
     </row>
     <row r="17" spans="1:73">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="41" t="s">
         <v>347</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -7747,7 +7747,7 @@
       </c>
     </row>
     <row r="18" spans="1:73">
-      <c r="A18" s="36"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>195</v>
       </c>
@@ -7966,7 +7966,7 @@
       </c>
     </row>
     <row r="19" spans="1:73">
-      <c r="A19" s="36"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="16" t="s">
         <v>196</v>
       </c>
@@ -8185,7 +8185,7 @@
       </c>
     </row>
     <row r="20" spans="1:73">
-      <c r="A20" s="36"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>193</v>
       </c>
@@ -8404,7 +8404,7 @@
       </c>
     </row>
     <row r="21" spans="1:73" ht="15" thickBot="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="17" t="s">
         <v>194</v>
       </c>
@@ -8623,7 +8623,7 @@
       </c>
     </row>
     <row r="22" spans="1:73">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="41" t="s">
         <v>348</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -8844,7 +8844,7 @@
       </c>
     </row>
     <row r="23" spans="1:73">
-      <c r="A23" s="36"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="16" t="s">
         <v>196</v>
       </c>
@@ -9063,7 +9063,7 @@
       </c>
     </row>
     <row r="24" spans="1:73">
-      <c r="A24" s="36"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="16" t="s">
         <v>197</v>
       </c>
@@ -9282,7 +9282,7 @@
       </c>
     </row>
     <row r="25" spans="1:73">
-      <c r="A25" s="36"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="16" t="s">
         <v>193</v>
       </c>
@@ -9501,7 +9501,7 @@
       </c>
     </row>
     <row r="26" spans="1:73" ht="15" thickBot="1">
-      <c r="A26" s="37"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="17" t="s">
         <v>194</v>
       </c>
@@ -9720,7 +9720,7 @@
       </c>
     </row>
     <row r="27" spans="1:73">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="41" t="s">
         <v>349</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -9941,7 +9941,7 @@
       </c>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="36"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>198</v>
       </c>
@@ -10160,7 +10160,7 @@
       </c>
     </row>
     <row r="29" spans="1:73">
-      <c r="A29" s="36"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>241</v>
       </c>
@@ -10379,7 +10379,7 @@
       </c>
     </row>
     <row r="30" spans="1:73">
-      <c r="A30" s="36"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="16" t="s">
         <v>289</v>
       </c>
@@ -10598,7 +10598,7 @@
       </c>
     </row>
     <row r="31" spans="1:73" ht="15" thickBot="1">
-      <c r="A31" s="37"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="17" t="s">
         <v>199</v>
       </c>
@@ -10817,7 +10817,7 @@
       </c>
     </row>
     <row r="32" spans="1:73">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="41" t="s">
         <v>350</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -11038,7 +11038,7 @@
       </c>
     </row>
     <row r="33" spans="1:73">
-      <c r="A33" s="36"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="16" t="s">
         <v>192</v>
       </c>
@@ -11257,7 +11257,7 @@
       </c>
     </row>
     <row r="34" spans="1:73" ht="15" thickBot="1">
-      <c r="A34" s="36"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="16" t="s">
         <v>193</v>
       </c>
@@ -11476,7 +11476,7 @@
       </c>
     </row>
     <row r="35" spans="1:73">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="36" t="s">
         <v>351</v>
       </c>
       <c r="B35" s="28" t="s">
@@ -11697,7 +11697,7 @@
       </c>
     </row>
     <row r="36" spans="1:73">
-      <c r="A36" s="44"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="29" t="s">
         <v>258</v>
       </c>
@@ -11916,7 +11916,7 @@
       </c>
     </row>
     <row r="37" spans="1:73">
-      <c r="A37" s="44"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="29" t="s">
         <v>259</v>
       </c>
@@ -12135,7 +12135,7 @@
       </c>
     </row>
     <row r="38" spans="1:73" ht="15" thickBot="1">
-      <c r="A38" s="45"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="30" t="s">
         <v>260</v>
       </c>
@@ -12355,17 +12355,17 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D1:AI1"/>
+    <mergeCell ref="BD1:BU1"/>
+    <mergeCell ref="AJ1:BC1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A7:A11"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="BD1:BU1"/>
-    <mergeCell ref="AJ1:BC1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
